--- a/Initial_state_vector_&_transition_probability_parameters.xlsx
+++ b/Initial_state_vector_&_transition_probability_parameters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IQBIO\Rotation 1\BVSD-GT-Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IQBIO\Rotation 1\BVSD-GT-Research-New\BVSD-GT-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FFE121-A552-4CBF-91DF-5B083563AF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ED7A11-38FD-40AC-8F1D-4D54B782D6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1990,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="F278" sqref="F278"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D272" sqref="D272:E328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Initial_state_vector_&_transition_probability_parameters.xlsx
+++ b/Initial_state_vector_&_transition_probability_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IQBIO\Rotation 1\BVSD-GT-Research-New\BVSD-GT-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0ED7A11-38FD-40AC-8F1D-4D54B782D6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5317AAA2-7DC8-4DD1-9B85-575A4457F3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1990,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D272" sqref="D272:E328"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77:D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Initial_state_vector_&_transition_probability_parameters.xlsx
+++ b/Initial_state_vector_&_transition_probability_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IQBIO\Rotation 1\BVSD-GT-Research-New\BVSD-GT-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5317AAA2-7DC8-4DD1-9B85-575A4457F3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBF05FA-DF6B-46E0-A7E2-7910F3451B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1990,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77:D89"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2020,7 +2020,7 @@
         <v>52</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -2185,7 +2185,7 @@
         <v>67</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -2350,7 +2350,7 @@
         <v>83</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
@@ -2515,7 +2515,7 @@
         <v>97</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
@@ -2680,7 +2680,7 @@
         <v>112</v>
       </c>
       <c r="C62" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.45">

--- a/Initial_state_vector_&_transition_probability_parameters.xlsx
+++ b/Initial_state_vector_&_transition_probability_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IQBIO\Rotation 1\BVSD-GT-Research-New\BVSD-GT-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BBF05FA-DF6B-46E0-A7E2-7910F3451B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F11BF4-5CFB-4171-828B-13022A246593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="365">
   <si>
     <t>Beta_0_Yr_1_W</t>
   </si>
@@ -1125,6 +1125,9 @@
   </si>
   <si>
     <t>Other yr4</t>
+  </si>
+  <si>
+    <t>K_B</t>
   </si>
 </sst>
 </file>
@@ -1988,10 +1991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C336"/>
+  <dimension ref="A1:C375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="A338" sqref="A338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5956,6 +5959,127 @@
         <v>0</v>
       </c>
     </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A337" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A338" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A339" s="5"/>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A340" s="5"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A341" s="5"/>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A342" s="5"/>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A343" s="5"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A344" s="5"/>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A345" s="5"/>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A346" s="5"/>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A347" s="5"/>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A348" s="5"/>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A349" s="5"/>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A350" s="5"/>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A351" s="5"/>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A352" s="5"/>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A353" s="5"/>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A354" s="5"/>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A355" s="5"/>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A356" s="5"/>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A357" s="5"/>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A358" s="5"/>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A359" s="5"/>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A360" s="5"/>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A361" s="5"/>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A362" s="5"/>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A363" s="5"/>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A364" s="5"/>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A365" s="5"/>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A366" s="5"/>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A367" s="5"/>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A368" s="5"/>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A369" s="5"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A370" s="5"/>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A371" s="5"/>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A372" s="5"/>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A373" s="5"/>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A374" s="5"/>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A375" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Initial_state_vector_&_transition_probability_parameters.xlsx
+++ b/Initial_state_vector_&_transition_probability_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IQBIO\Rotation 1\BVSD-GT-Research-New\BVSD-GT-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F11BF4-5CFB-4171-828B-13022A246593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CD8DCC-85F9-4F64-8CD8-EF309F7B25AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="379">
   <si>
     <t>Beta_0_Yr_1_W</t>
   </si>
@@ -1127,7 +1127,49 @@
     <t>Other yr4</t>
   </si>
   <si>
-    <t>K_B</t>
+    <t>White yr2 K_B</t>
+  </si>
+  <si>
+    <t>Asian yr2 K_B</t>
+  </si>
+  <si>
+    <t>Latinx yr2 K_B</t>
+  </si>
+  <si>
+    <t>2MR yr2 K_B</t>
+  </si>
+  <si>
+    <t>Other yr2 K_B</t>
+  </si>
+  <si>
+    <t>White yr3 K_B</t>
+  </si>
+  <si>
+    <t>Asian yr3 K_B</t>
+  </si>
+  <si>
+    <t>Latinx yr3 K_B</t>
+  </si>
+  <si>
+    <t>2MR yr3 K_B</t>
+  </si>
+  <si>
+    <t>Other yr3 K_B</t>
+  </si>
+  <si>
+    <t>White yr4 K_B</t>
+  </si>
+  <si>
+    <t>Asian yr4 K_B</t>
+  </si>
+  <si>
+    <t>Latinx yr4 K_B</t>
+  </si>
+  <si>
+    <t>2MR yr4 K_B</t>
+  </si>
+  <si>
+    <t>Other yr4 K_B</t>
   </si>
 </sst>
 </file>
@@ -1993,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="A338" sqref="A338"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="G341" sqref="G341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5959,56 +6001,127 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A337" s="5" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C337">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A338" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A339" s="5"/>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A340" s="5"/>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A341" s="5"/>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A342" s="5"/>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A343" s="5"/>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A344" s="5"/>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A345" s="5"/>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A346" s="5"/>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A347" s="5"/>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A348" s="5"/>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A349" s="5"/>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A350" s="5"/>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A351" s="5"/>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.45">
+        <v>365</v>
+      </c>
+      <c r="C338">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A339" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C339">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A340" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C340">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A341" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C341">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A342" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C342">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A343" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C343">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A344" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C344">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A345" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C345">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A346" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C346">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A347" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C347">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A348" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C348">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A349" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C349">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A350" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C350">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A351" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C351">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A352" s="5"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.45">

--- a/Initial_state_vector_&_transition_probability_parameters.xlsx
+++ b/Initial_state_vector_&_transition_probability_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IQBIO\Rotation 1\BVSD-GT-Research-New\BVSD-GT-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CD8DCC-85F9-4F64-8CD8-EF309F7B25AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907583AE-2B6B-4663-9913-2F5EF25801AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2035,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="G341" sqref="G341"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="C300" sqref="C300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5553,8 +5553,8 @@
         <v>297</v>
       </c>
       <c r="C299">
-        <f>2</f>
-        <v>2</v>
+        <f>1</f>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.45">

--- a/Initial_state_vector_&_transition_probability_parameters.xlsx
+++ b/Initial_state_vector_&_transition_probability_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IQBIO\Rotation 1\BVSD-GT-Research-New\BVSD-GT-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907583AE-2B6B-4663-9913-2F5EF25801AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9020F69A-3758-4A48-8033-D61A5F11D179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="378">
   <si>
     <t>Beta_0_Yr_1_W</t>
   </si>
@@ -1092,9 +1092,6 @@
   </si>
   <si>
     <t>Latinx yr2</t>
-  </si>
-  <si>
-    <t>Latinx yr 2</t>
   </si>
   <si>
     <t>2MR yr2</t>
@@ -2035,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="C300" sqref="C300"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3987,7 +3984,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>167</v>
@@ -4131,7 +4128,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A181" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>179</v>
@@ -4143,7 +4140,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A182" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>180</v>
@@ -4155,7 +4152,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A183" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>181</v>
@@ -4167,7 +4164,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A184" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>182</v>
@@ -4179,7 +4176,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A185" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>183</v>
@@ -4191,7 +4188,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A186" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>184</v>
@@ -4203,7 +4200,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A187" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B187" s="4" t="s">
         <v>185</v>
@@ -4215,7 +4212,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A188" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>186</v>
@@ -4227,7 +4224,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>187</v>
@@ -4239,7 +4236,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>188</v>
@@ -4251,7 +4248,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>189</v>
@@ -4263,7 +4260,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>190</v>
@@ -4275,7 +4272,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>191</v>
@@ -4287,7 +4284,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>192</v>
@@ -4299,7 +4296,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>193</v>
@@ -4311,7 +4308,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>194</v>
@@ -4323,7 +4320,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>195</v>
@@ -4335,7 +4332,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>196</v>
@@ -4347,7 +4344,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>197</v>
@@ -4359,7 +4356,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>198</v>
@@ -4371,7 +4368,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>199</v>
@@ -4383,7 +4380,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>200</v>
@@ -4395,7 +4392,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>201</v>
@@ -4407,7 +4404,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>202</v>
@@ -4419,7 +4416,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>203</v>
@@ -4431,7 +4428,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>204</v>
@@ -4755,7 +4752,7 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>231</v>
@@ -4767,7 +4764,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>232</v>
@@ -4779,7 +4776,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>233</v>
@@ -4791,7 +4788,7 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>234</v>
@@ -4803,7 +4800,7 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>235</v>
@@ -4815,7 +4812,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A238" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>236</v>
@@ -4827,7 +4824,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>237</v>
@@ -4839,7 +4836,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>238</v>
@@ -4851,7 +4848,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A241" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>239</v>
@@ -4863,7 +4860,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A242" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>240</v>
@@ -4875,7 +4872,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A243" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>241</v>
@@ -4887,7 +4884,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A244" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>242</v>
@@ -4899,7 +4896,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A245" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>243</v>
@@ -4911,7 +4908,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>244</v>
@@ -4923,7 +4920,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>245</v>
@@ -4935,7 +4932,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>246</v>
@@ -4947,7 +4944,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>247</v>
@@ -4959,7 +4956,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>248</v>
@@ -4971,7 +4968,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>249</v>
@@ -4983,7 +4980,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>250</v>
@@ -4995,7 +4992,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>251</v>
@@ -5007,7 +5004,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>252</v>
@@ -5019,7 +5016,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>253</v>
@@ -5031,7 +5028,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>254</v>
@@ -5043,7 +5040,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>255</v>
@@ -5055,7 +5052,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>256</v>
@@ -5067,7 +5064,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A259" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>257</v>
@@ -5079,7 +5076,7 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A260" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>258</v>
@@ -5091,7 +5088,7 @@
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A261" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>259</v>
@@ -5103,7 +5100,7 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>260</v>
@@ -5115,7 +5112,7 @@
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A263" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>261</v>
@@ -5127,7 +5124,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A264" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>262</v>
@@ -5139,7 +5136,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A265" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>263</v>
@@ -5151,7 +5148,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A266" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>264</v>
@@ -5163,7 +5160,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A267" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>265</v>
@@ -5175,7 +5172,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A268" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>266</v>
@@ -5187,7 +5184,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A269" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>267</v>
@@ -5199,7 +5196,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A270" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>268</v>
@@ -5211,7 +5208,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A271" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>269</v>
@@ -5223,7 +5220,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>270</v>
@@ -5235,7 +5232,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>271</v>
@@ -5247,7 +5244,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A274" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>272</v>
@@ -5259,7 +5256,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>273</v>
@@ -5271,7 +5268,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A276" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>274</v>
@@ -5283,7 +5280,7 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>275</v>
@@ -5295,7 +5292,7 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A278" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>276</v>
@@ -5307,7 +5304,7 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A279" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>277</v>
@@ -5319,7 +5316,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A280" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>278</v>
@@ -5331,7 +5328,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A281" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>279</v>
@@ -5343,7 +5340,7 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A282" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>280</v>
@@ -5355,7 +5352,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A283" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>281</v>
@@ -5367,7 +5364,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A284" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>282</v>
@@ -5379,7 +5376,7 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A285" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B285" s="4" t="s">
         <v>283</v>
@@ -5391,7 +5388,7 @@
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A286" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B286" s="4" t="s">
         <v>284</v>
@@ -5403,7 +5400,7 @@
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A287" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B287" s="4" t="s">
         <v>285</v>
@@ -5415,7 +5412,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A288" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B288" s="4" t="s">
         <v>286</v>
@@ -5427,7 +5424,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A289" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B289" s="4" t="s">
         <v>287</v>
@@ -5439,7 +5436,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A290" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B290" s="4" t="s">
         <v>288</v>
@@ -5451,7 +5448,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A291" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B291" s="4" t="s">
         <v>289</v>
@@ -5463,7 +5460,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A292" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B292" s="4" t="s">
         <v>290</v>
@@ -5475,7 +5472,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A293" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B293" s="4" t="s">
         <v>291</v>
@@ -5487,7 +5484,7 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A294" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B294" s="4" t="s">
         <v>292</v>
@@ -5499,7 +5496,7 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A295" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B295" s="4" t="s">
         <v>293</v>
@@ -5511,7 +5508,7 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A296" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B296" s="4" t="s">
         <v>294</v>
@@ -5523,7 +5520,7 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A297" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B297" s="4" t="s">
         <v>295</v>
@@ -5535,7 +5532,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A298" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>296</v>
@@ -5547,7 +5544,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A299" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>297</v>
@@ -5559,7 +5556,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A300" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>298</v>
@@ -5571,7 +5568,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A301" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>299</v>
@@ -5583,7 +5580,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A302" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>300</v>
@@ -5595,7 +5592,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A303" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>301</v>
@@ -5607,7 +5604,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A304" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>302</v>
@@ -5619,7 +5616,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A305" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>303</v>
@@ -5631,7 +5628,7 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A306" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>304</v>
@@ -5643,7 +5640,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A307" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>305</v>
@@ -5655,7 +5652,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A308" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>306</v>
@@ -5667,7 +5664,7 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A309" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>307</v>
@@ -5679,7 +5676,7 @@
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A310" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>308</v>
@@ -5691,7 +5688,7 @@
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A311" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B311" s="4" t="s">
         <v>309</v>
@@ -5703,7 +5700,7 @@
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A312" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B312" s="4" t="s">
         <v>310</v>
@@ -5715,7 +5712,7 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A313" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B313" s="4" t="s">
         <v>311</v>
@@ -5727,7 +5724,7 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A314" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B314" s="4" t="s">
         <v>312</v>
@@ -5739,7 +5736,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A315" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B315" s="4" t="s">
         <v>313</v>
@@ -5751,7 +5748,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A316" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B316" s="4" t="s">
         <v>314</v>
@@ -5763,7 +5760,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A317" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B317" s="4" t="s">
         <v>315</v>
@@ -5775,7 +5772,7 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A318" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B318" s="4" t="s">
         <v>316</v>
@@ -5787,7 +5784,7 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A319" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B319" s="4" t="s">
         <v>317</v>
@@ -5799,7 +5796,7 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A320" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B320" s="4" t="s">
         <v>318</v>
@@ -5811,7 +5808,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A321" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B321" s="4" t="s">
         <v>319</v>
@@ -5823,7 +5820,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A322" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B322" s="4" t="s">
         <v>320</v>
@@ -5835,7 +5832,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A323" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B323" s="4" t="s">
         <v>321</v>
@@ -5847,7 +5844,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A324" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>322</v>
@@ -5859,7 +5856,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A325" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>323</v>
@@ -5871,7 +5868,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A326" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>324</v>
@@ -5883,7 +5880,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A327" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>325</v>
@@ -5895,7 +5892,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A328" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>326</v>
@@ -5907,7 +5904,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A329" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>327</v>
@@ -5919,7 +5916,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A330" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>328</v>
@@ -5931,7 +5928,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A331" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>329</v>
@@ -5943,7 +5940,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A332" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>330</v>
@@ -5955,7 +5952,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A333" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>331</v>
@@ -5967,7 +5964,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A334" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>332</v>
@@ -5979,7 +5976,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A335" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>333</v>
@@ -5991,7 +5988,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A336" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>334</v>
@@ -6003,7 +6000,7 @@
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A337" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C337">
         <v>1223</v>
@@ -6011,7 +6008,7 @@
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A338" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C338">
         <v>103</v>
@@ -6019,7 +6016,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A339" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C339">
         <v>366</v>
@@ -6027,7 +6024,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A340" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C340">
         <v>114</v>
@@ -6035,7 +6032,7 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A341" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C341">
         <v>17</v>
@@ -6043,7 +6040,7 @@
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A342" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C342">
         <v>1073</v>
@@ -6051,7 +6048,7 @@
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A343" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C343">
         <v>100</v>
@@ -6059,7 +6056,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A344" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C344">
         <v>352</v>
@@ -6067,7 +6064,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A345" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C345">
         <v>100</v>
@@ -6075,7 +6072,7 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A346" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C346">
         <v>24</v>
@@ -6083,7 +6080,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A347" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C347">
         <v>1091</v>
@@ -6091,7 +6088,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A348" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C348">
         <v>92</v>
@@ -6099,7 +6096,7 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A349" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C349">
         <v>324</v>
@@ -6107,7 +6104,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A350" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C350">
         <v>137</v>
@@ -6115,7 +6112,7 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A351" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C351">
         <v>30</v>

--- a/Initial_state_vector_&_transition_probability_parameters.xlsx
+++ b/Initial_state_vector_&_transition_probability_parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IQBIO\Rotation 1\BVSD-GT-Research-New\BVSD-GT-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9020F69A-3758-4A48-8033-D61A5F11D179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB75672-F8EC-4637-9F82-3B300FF677C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2032,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C375"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="F171" sqref="F171"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
